--- a/AkioAILocal/race_exp_result/大井ダ2000.xlsx
+++ b/AkioAILocal/race_exp_result/大井ダ2000.xlsx
@@ -438,31 +438,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2477738308334095</v>
+        <v>0.3526644787665912</v>
       </c>
       <c r="C2">
-        <v>0.7536074132034706</v>
+        <v>0.2500850073979329</v>
       </c>
       <c r="D2">
-        <v>0.7610846123305942</v>
+        <v>0.223764207957154</v>
       </c>
       <c r="E2">
-        <v>0.9974038601930317</v>
+        <v>0.8975650656603229</v>
       </c>
       <c r="F2">
-        <v>0.01128616585816078</v>
+        <v>0.1086088580905773</v>
       </c>
       <c r="G2">
-        <v>0.1103986868761629</v>
+        <v>0.4663715686548254</v>
       </c>
       <c r="H2">
-        <v>0.2600565586670119</v>
+        <v>0.4298861492618623</v>
       </c>
       <c r="I2">
-        <v>0.8674503653795139</v>
+        <v>0.9389619324706736</v>
       </c>
       <c r="J2">
-        <v>0.9893915852002816</v>
+        <v>0.7025109940620271</v>
       </c>
     </row>
   </sheetData>
